--- a/doc/template/upd_t.xlsx
+++ b/doc/template/upd_t.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Музмарт\Desktop\УПД физ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Музмарт\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="139">
   <si>
     <t>Универсальный передаточный
 документ</t>
@@ -62,9 +62,6 @@
     <t>Адрес:</t>
   </si>
   <si>
-    <t>625062, Тюменская обл, Тюмень г, Федюнинского ул, дом 62, квартира 23</t>
-  </si>
-  <si>
     <t>(2а)</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
   </si>
   <si>
     <t>Грузоотправитель и его адрес:</t>
-  </si>
-  <si>
-    <t>ООО "ТЕХНОСЦЕНА", 643,625062,Тюменская обл,,Тюмень г,,Федюнинского ул,дом 62,,квартира 23</t>
   </si>
   <si>
     <t>(3)</t>
@@ -454,9 +448,6 @@
     <t>{total}</t>
   </si>
   <si>
-    <t>Фролов Е.Л.</t>
-  </si>
-  <si>
     <t>Генеральный директор</t>
   </si>
   <si>
@@ -470,6 +461,18 @@
   </si>
   <si>
     <t>{adres}</t>
+  </si>
+  <si>
+    <t>625028, Тюменская область, г. Тюмень, пр. Стахановцев д 3, кв.118</t>
+  </si>
+  <si>
+    <t>ООО "ТЕХНОСЦЕНА", 625028, Тюменская область, г. Тюмень, пр. Стахановцев д 3, кв.118</t>
+  </si>
+  <si>
+    <t>/Кокшаров А.С./</t>
+  </si>
+  <si>
+    <t>Кокшаров А.С.</t>
   </si>
 </sst>
 </file>
@@ -1231,8 +1234,8 @@
   </sheetPr>
   <dimension ref="B1:FP49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CN47" sqref="CN47:FJ47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="FS42" sqref="FS42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1291,7 +1294,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF2" s="66"/>
       <c r="AG2" s="66"/>
@@ -1310,7 +1313,7 @@
       <c r="AR2" s="67"/>
       <c r="AS2" s="67"/>
       <c r="AT2" s="66" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AU2" s="66"/>
       <c r="AV2" s="66"/>
@@ -1753,7 +1756,7 @@
         <v>12</v>
       </c>
       <c r="AU6" s="31" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="AV6" s="31"/>
       <c r="AW6" s="31"/>
@@ -1876,7 +1879,7 @@
       <c r="FJ6" s="31"/>
       <c r="FK6" s="31"/>
       <c r="FL6" s="59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="FM6" s="59"/>
       <c r="FN6" s="59"/>
@@ -1884,7 +1887,7 @@
     </row>
     <row r="7" spans="2:171" x14ac:dyDescent="0.2">
       <c r="B7" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -1894,7 +1897,7 @@
       <c r="H7" s="29"/>
       <c r="I7" s="4"/>
       <c r="J7" s="64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="64"/>
       <c r="L7" s="64"/>
@@ -1904,10 +1907,10 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="1"/>
       <c r="R7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU7" s="31" t="s">
         <v>17</v>
-      </c>
-      <c r="AU7" s="31" t="s">
-        <v>18</v>
       </c>
       <c r="AV7" s="31"/>
       <c r="AW7" s="31"/>
@@ -2030,7 +2033,7 @@
       <c r="FJ7" s="31"/>
       <c r="FK7" s="31"/>
       <c r="FL7" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="FM7" s="59"/>
       <c r="FN7" s="59"/>
@@ -2039,10 +2042,10 @@
     <row r="8" spans="2:171" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q8" s="1"/>
       <c r="R8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU8" s="61" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="AV8" s="61"/>
       <c r="AW8" s="61"/>
@@ -2165,7 +2168,7 @@
       <c r="FJ8" s="61"/>
       <c r="FK8" s="61"/>
       <c r="FL8" s="59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FM8" s="59"/>
       <c r="FN8" s="59"/>
@@ -2173,7 +2176,7 @@
     </row>
     <row r="9" spans="2:171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -2191,10 +2194,10 @@
       <c r="P9" s="62"/>
       <c r="Q9" s="1"/>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU9" s="61" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AV9" s="61"/>
       <c r="AW9" s="61"/>
@@ -2317,7 +2320,7 @@
       <c r="FJ9" s="61"/>
       <c r="FK9" s="61"/>
       <c r="FL9" s="59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="FM9" s="59"/>
       <c r="FN9" s="59"/>
@@ -2341,10 +2344,10 @@
       <c r="P10" s="62"/>
       <c r="Q10" s="1"/>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU10" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV10" s="31"/>
       <c r="AW10" s="31"/>
@@ -2467,7 +2470,7 @@
       <c r="FJ10" s="31"/>
       <c r="FK10" s="31"/>
       <c r="FL10" s="59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="FM10" s="59"/>
       <c r="FN10" s="59"/>
@@ -2491,10 +2494,10 @@
       <c r="P11" s="62"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU11" s="31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AV11" s="31"/>
       <c r="AW11" s="31"/>
@@ -2617,7 +2620,7 @@
       <c r="FJ11" s="31"/>
       <c r="FK11" s="31"/>
       <c r="FL11" s="59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="FM11" s="59"/>
       <c r="FN11" s="59"/>
@@ -2644,7 +2647,7 @@
         <v>12</v>
       </c>
       <c r="AU12" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AV12" s="31"/>
       <c r="AW12" s="31"/>
@@ -2767,7 +2770,7 @@
       <c r="FJ12" s="31"/>
       <c r="FK12" s="31"/>
       <c r="FL12" s="59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="FM12" s="59"/>
       <c r="FN12" s="59"/>
@@ -2791,7 +2794,7 @@
       <c r="P13" s="62"/>
       <c r="Q13" s="1"/>
       <c r="R13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AU13" s="31"/>
       <c r="AV13" s="31"/>
@@ -2915,7 +2918,7 @@
       <c r="FJ13" s="31"/>
       <c r="FK13" s="31"/>
       <c r="FL13" s="59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="FM13" s="59"/>
       <c r="FN13" s="59"/>
@@ -2939,10 +2942,10 @@
       <c r="P14" s="62"/>
       <c r="Q14" s="1"/>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AU14" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AV14" s="31"/>
       <c r="AW14" s="31"/>
@@ -3065,7 +3068,7 @@
       <c r="FJ14" s="31"/>
       <c r="FK14" s="31"/>
       <c r="FL14" s="59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="FM14" s="59"/>
       <c r="FN14" s="59"/>
@@ -3074,7 +3077,7 @@
     <row r="15" spans="2:171" x14ac:dyDescent="0.2">
       <c r="Q15" s="1"/>
       <c r="R15" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -3137,7 +3140,7 @@
       <c r="BY15" s="5"/>
       <c r="BZ15" s="5"/>
       <c r="CA15" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CB15" s="31"/>
       <c r="CC15" s="31"/>
@@ -3228,7 +3231,7 @@
       <c r="FJ15" s="31"/>
       <c r="FK15" s="31"/>
       <c r="FL15" s="59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="FM15" s="59"/>
       <c r="FN15" s="59"/>
@@ -3239,14 +3242,14 @@
     </row>
     <row r="17" spans="2:172" s="4" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
       <c r="F17" s="57"/>
       <c r="G17" s="47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
@@ -3258,7 +3261,7 @@
       <c r="O17" s="47"/>
       <c r="P17" s="47"/>
       <c r="Q17" s="58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R17" s="58"/>
       <c r="S17" s="58"/>
@@ -3288,7 +3291,7 @@
       <c r="AQ17" s="58"/>
       <c r="AR17" s="58"/>
       <c r="AS17" s="57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AT17" s="57"/>
       <c r="AU17" s="57"/>
@@ -3301,7 +3304,7 @@
       <c r="BB17" s="57"/>
       <c r="BC17" s="57"/>
       <c r="BD17" s="47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BE17" s="47"/>
       <c r="BF17" s="47"/>
@@ -3316,7 +3319,7 @@
       <c r="BO17" s="47"/>
       <c r="BP17" s="47"/>
       <c r="BQ17" s="47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BR17" s="47"/>
       <c r="BS17" s="47"/>
@@ -3325,7 +3328,7 @@
       <c r="BV17" s="47"/>
       <c r="BW17" s="47"/>
       <c r="BX17" s="47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BY17" s="47"/>
       <c r="BZ17" s="47"/>
@@ -3336,7 +3339,7 @@
       <c r="CE17" s="47"/>
       <c r="CF17" s="47"/>
       <c r="CG17" s="47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CH17" s="47"/>
       <c r="CI17" s="47"/>
@@ -3350,7 +3353,7 @@
       <c r="CQ17" s="47"/>
       <c r="CR17" s="47"/>
       <c r="CS17" s="47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CT17" s="47"/>
       <c r="CU17" s="47"/>
@@ -3362,7 +3365,7 @@
       <c r="DA17" s="47"/>
       <c r="DB17" s="47"/>
       <c r="DC17" s="47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DD17" s="47"/>
       <c r="DE17" s="47"/>
@@ -3371,7 +3374,7 @@
       <c r="DH17" s="47"/>
       <c r="DI17" s="47"/>
       <c r="DJ17" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="DK17" s="47"/>
       <c r="DL17" s="47"/>
@@ -3383,7 +3386,7 @@
       <c r="DR17" s="47"/>
       <c r="DS17" s="47"/>
       <c r="DT17" s="47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DU17" s="47"/>
       <c r="DV17" s="47"/>
@@ -3397,7 +3400,7 @@
       <c r="ED17" s="47"/>
       <c r="EE17" s="47"/>
       <c r="EF17" s="47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="EG17" s="47"/>
       <c r="EH17" s="47"/>
@@ -3415,7 +3418,7 @@
       <c r="ET17" s="47"/>
       <c r="EU17" s="47"/>
       <c r="EV17" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="EW17" s="47"/>
       <c r="EX17" s="47"/>
@@ -3493,13 +3496,13 @@
       <c r="BB18" s="57"/>
       <c r="BC18" s="57"/>
       <c r="BD18" s="60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BE18" s="60"/>
       <c r="BF18" s="60"/>
       <c r="BG18" s="60"/>
       <c r="BH18" s="60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BI18" s="60"/>
       <c r="BJ18" s="60"/>
@@ -3577,14 +3580,14 @@
       <c r="ED18" s="47"/>
       <c r="EE18" s="47"/>
       <c r="EF18" s="60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="EG18" s="60"/>
       <c r="EH18" s="60"/>
       <c r="EI18" s="60"/>
       <c r="EJ18" s="60"/>
       <c r="EK18" s="47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="EL18" s="47"/>
       <c r="EM18" s="47"/>
@@ -3619,14 +3622,14 @@
     </row>
     <row r="19" spans="2:172" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
       <c r="E19" s="52"/>
       <c r="F19" s="52"/>
       <c r="G19" s="39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
@@ -3638,7 +3641,7 @@
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R19" s="53"/>
       <c r="S19" s="53"/>
@@ -3668,7 +3671,7 @@
       <c r="AQ19" s="53"/>
       <c r="AR19" s="53"/>
       <c r="AS19" s="54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT19" s="54"/>
       <c r="AU19" s="54"/>
@@ -3681,13 +3684,13 @@
       <c r="BB19" s="54"/>
       <c r="BC19" s="54"/>
       <c r="BD19" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BE19" s="39"/>
       <c r="BF19" s="39"/>
       <c r="BG19" s="39"/>
       <c r="BH19" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BI19" s="39"/>
       <c r="BJ19" s="39"/>
@@ -3698,7 +3701,7 @@
       <c r="BO19" s="39"/>
       <c r="BP19" s="39"/>
       <c r="BQ19" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BR19" s="39"/>
       <c r="BS19" s="39"/>
@@ -3707,7 +3710,7 @@
       <c r="BV19" s="39"/>
       <c r="BW19" s="39"/>
       <c r="BX19" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BY19" s="39"/>
       <c r="BZ19" s="39"/>
@@ -3718,7 +3721,7 @@
       <c r="CE19" s="39"/>
       <c r="CF19" s="39"/>
       <c r="CG19" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="CH19" s="39"/>
       <c r="CI19" s="39"/>
@@ -3732,7 +3735,7 @@
       <c r="CQ19" s="39"/>
       <c r="CR19" s="39"/>
       <c r="CS19" s="39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="CT19" s="39"/>
       <c r="CU19" s="39"/>
@@ -3744,7 +3747,7 @@
       <c r="DA19" s="39"/>
       <c r="DB19" s="39"/>
       <c r="DC19" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="DD19" s="39"/>
       <c r="DE19" s="39"/>
@@ -3753,7 +3756,7 @@
       <c r="DH19" s="39"/>
       <c r="DI19" s="39"/>
       <c r="DJ19" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="DK19" s="39"/>
       <c r="DL19" s="39"/>
@@ -3765,7 +3768,7 @@
       <c r="DR19" s="39"/>
       <c r="DS19" s="39"/>
       <c r="DT19" s="39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="DU19" s="39"/>
       <c r="DV19" s="39"/>
@@ -3779,14 +3782,14 @@
       <c r="ED19" s="39"/>
       <c r="EE19" s="39"/>
       <c r="EF19" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="EG19" s="39"/>
       <c r="EH19" s="39"/>
       <c r="EI19" s="39"/>
       <c r="EJ19" s="39"/>
       <c r="EK19" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="EL19" s="39"/>
       <c r="EM19" s="39"/>
@@ -3799,7 +3802,7 @@
       <c r="ET19" s="39"/>
       <c r="EU19" s="39"/>
       <c r="EV19" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="EW19" s="39"/>
       <c r="EX19" s="39"/>
@@ -3823,7 +3826,7 @@
     </row>
     <row r="20" spans="2:172" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" s="48">
         <v>1</v>
@@ -3838,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="49"/>
@@ -3850,7 +3853,7 @@
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R20" s="50"/>
       <c r="S20" s="50"/>
@@ -3893,13 +3896,13 @@
       <c r="BB20" s="51"/>
       <c r="BC20" s="51"/>
       <c r="BD20" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BE20" s="46"/>
       <c r="BF20" s="46"/>
       <c r="BG20" s="46"/>
       <c r="BH20" s="46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BI20" s="46"/>
       <c r="BJ20" s="46"/>
@@ -3910,7 +3913,7 @@
       <c r="BO20" s="46"/>
       <c r="BP20" s="46"/>
       <c r="BQ20" s="55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BR20" s="55">
         <v>1000</v>
@@ -3931,7 +3934,7 @@
         <v>1000</v>
       </c>
       <c r="BX20" s="45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BY20" s="45">
         <v>2025.83</v>
@@ -3958,7 +3961,7 @@
         <v>2025.83</v>
       </c>
       <c r="CG20" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CH20" s="45">
         <v>2025.83</v>
@@ -3994,7 +3997,7 @@
         <v>2025.83</v>
       </c>
       <c r="CS20" s="56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CT20" s="56"/>
       <c r="CU20" s="56"/>
@@ -4027,7 +4030,7 @@
         <v>20</v>
       </c>
       <c r="DJ20" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="DK20" s="45">
         <v>405.17</v>
@@ -4057,7 +4060,7 @@
         <v>405.17</v>
       </c>
       <c r="DT20" s="45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="DU20" s="45">
         <v>2431</v>
@@ -4153,7 +4156,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -4222,7 +4225,7 @@
       <c r="CE21" s="7"/>
       <c r="CF21" s="7"/>
       <c r="CG21" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CH21" s="38">
         <v>2025.83</v>
@@ -4258,7 +4261,7 @@
         <v>2025.83</v>
       </c>
       <c r="CS21" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CT21" s="39"/>
       <c r="CU21" s="39"/>
@@ -4277,7 +4280,7 @@
       <c r="DH21" s="39"/>
       <c r="DI21" s="39"/>
       <c r="DJ21" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="DK21" s="40">
         <v>405.17</v>
@@ -4307,7 +4310,7 @@
         <v>405.17</v>
       </c>
       <c r="DT21" s="40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="DU21" s="40">
         <v>2431</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="23" spans="2:172" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -4401,7 +4404,7 @@
       <c r="O23" s="27"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
@@ -4457,7 +4460,7 @@
       <c r="BS23" s="37"/>
       <c r="BT23" s="37"/>
       <c r="BV23" s="29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW23" s="29"/>
       <c r="BX23" s="29"/>
@@ -4485,7 +4488,7 @@
       <c r="CT23" s="29"/>
       <c r="CU23" s="29"/>
       <c r="CY23" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="CZ23" s="27"/>
       <c r="DA23" s="27"/>
@@ -4525,7 +4528,7 @@
       <c r="EK23" s="29"/>
       <c r="EL23" s="29"/>
       <c r="EN23" s="29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="EO23" s="29"/>
       <c r="EP23" s="29"/>
@@ -4720,7 +4723,7 @@
     </row>
     <row r="25" spans="2:172" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -4729,7 +4732,7 @@
       <c r="G25" s="30"/>
       <c r="H25" s="4"/>
       <c r="I25" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -4740,7 +4743,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
@@ -4769,7 +4772,7 @@
       <c r="AQ25" s="27"/>
       <c r="AR25" s="11"/>
       <c r="AS25" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AT25" s="36"/>
       <c r="AU25" s="36"/>
@@ -4800,7 +4803,7 @@
       <c r="BT25" s="36"/>
       <c r="BU25" s="11"/>
       <c r="BV25" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BW25" s="28"/>
       <c r="BX25" s="28"/>
@@ -4853,7 +4856,7 @@
       <c r="DT25" s="13"/>
       <c r="DU25" s="13"/>
       <c r="DV25" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="DW25" s="28"/>
       <c r="DX25" s="28"/>
@@ -4872,7 +4875,7 @@
       <c r="EK25" s="28"/>
       <c r="EL25" s="28"/>
       <c r="EN25" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="EO25" s="28"/>
       <c r="EP25" s="28"/>
@@ -5121,7 +5124,7 @@
       <c r="AQ27" s="15"/>
       <c r="AR27" s="15"/>
       <c r="AS27" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AT27" s="42"/>
       <c r="AU27" s="42"/>
@@ -5152,7 +5155,7 @@
       <c r="BT27" s="42"/>
       <c r="BU27" s="16"/>
       <c r="BV27" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BW27" s="43"/>
       <c r="BX27" s="43"/>
@@ -5184,7 +5187,7 @@
       <c r="CX27" s="16"/>
       <c r="CY27" s="16"/>
       <c r="CZ27" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="DA27" s="43"/>
       <c r="DB27" s="43"/>
@@ -5418,7 +5421,7 @@
     </row>
     <row r="29" spans="2:172" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -5463,7 +5466,7 @@
       <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
       <c r="AS29" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AT29" s="35"/>
       <c r="AU29" s="35"/>
@@ -5587,7 +5590,7 @@
       <c r="FI29" s="35"/>
       <c r="FJ29" s="35"/>
       <c r="FK29" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="FL29" s="25"/>
       <c r="FM29" s="25"/>
@@ -5640,7 +5643,7 @@
       <c r="AQ30" s="11"/>
       <c r="AR30" s="11"/>
       <c r="AS30" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AT30" s="33"/>
       <c r="AU30" s="33"/>
@@ -5772,7 +5775,7 @@
     </row>
     <row r="31" spans="2:172" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -5939,7 +5942,7 @@
       <c r="FI31" s="34"/>
       <c r="FJ31" s="34"/>
       <c r="FK31" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="FL31" s="25"/>
       <c r="FM31" s="25"/>
@@ -5974,7 +5977,7 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
       <c r="AB32" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC32" s="33"/>
       <c r="AD32" s="33"/>
@@ -6284,7 +6287,7 @@
     </row>
     <row r="34" spans="2:172" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -6366,7 +6369,7 @@
       <c r="CL34" s="4"/>
       <c r="CM34" s="10"/>
       <c r="CN34" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="CO34" s="26"/>
       <c r="CP34" s="26"/>
@@ -6449,9 +6452,9 @@
       <c r="FO34" s="4"/>
       <c r="FP34" s="4"/>
     </row>
-    <row r="35" spans="2:172" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:172" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
@@ -6513,7 +6516,7 @@
       <c r="BH35" s="29"/>
       <c r="BI35" s="4"/>
       <c r="BJ35" s="29" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="BK35" s="29"/>
       <c r="BL35" s="29"/>
@@ -6540,7 +6543,7 @@
       <c r="CG35" s="29"/>
       <c r="CH35" s="17"/>
       <c r="CI35" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="CJ35" s="25"/>
       <c r="CK35" s="25"/>
@@ -6621,7 +6624,7 @@
       <c r="FH35" s="29"/>
       <c r="FI35" s="29"/>
       <c r="FK35" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="FL35" s="25"/>
       <c r="FM35" s="25"/>
@@ -6631,7 +6634,7 @@
     </row>
     <row r="36" spans="2:172" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -6657,7 +6660,7 @@
       <c r="X36" s="28"/>
       <c r="Y36" s="28"/>
       <c r="AA36" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB36" s="28"/>
       <c r="AC36" s="28"/>
@@ -6693,7 +6696,7 @@
       <c r="BG36" s="28"/>
       <c r="BH36" s="28"/>
       <c r="BJ36" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BK36" s="28"/>
       <c r="BL36" s="28"/>
@@ -6725,7 +6728,7 @@
       <c r="CL36" s="13"/>
       <c r="CM36" s="22"/>
       <c r="CN36" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="CO36" s="28"/>
       <c r="CP36" s="28"/>
@@ -6751,7 +6754,7 @@
       <c r="DJ36" s="28"/>
       <c r="DK36" s="28"/>
       <c r="DM36" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="DN36" s="28"/>
       <c r="DO36" s="28"/>
@@ -6777,7 +6780,7 @@
       <c r="EI36" s="28"/>
       <c r="EJ36" s="28"/>
       <c r="EL36" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="EM36" s="28"/>
       <c r="EN36" s="28"/>
@@ -6825,7 +6828,7 @@
     </row>
     <row r="38" spans="2:172" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -6852,7 +6855,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB38" s="30"/>
       <c r="AC38" s="30"/>
@@ -6905,20 +6908,20 @@
       <c r="CF38" s="4"/>
       <c r="CH38" s="17"/>
       <c r="CI38" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CJ38" s="25"/>
       <c r="CK38" s="25"/>
       <c r="CL38" s="4"/>
       <c r="CM38" s="10"/>
       <c r="CN38" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="CO38" s="4"/>
       <c r="CP38" s="4"/>
       <c r="CV38" s="4"/>
       <c r="DM38" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="DN38" s="31"/>
       <c r="DO38" s="31"/>
@@ -6944,7 +6947,7 @@
       <c r="EI38" s="31"/>
       <c r="EJ38" s="31"/>
       <c r="FK38" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="FL38" s="25"/>
       <c r="FM38" s="25"/>
@@ -7046,7 +7049,7 @@
     </row>
     <row r="40" spans="2:172" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -7128,7 +7131,7 @@
       <c r="CL40" s="4"/>
       <c r="CM40" s="10"/>
       <c r="CN40" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="CO40" s="26"/>
       <c r="CP40" s="26"/>
@@ -7272,7 +7275,7 @@
       <c r="CG41" s="32"/>
       <c r="CH41" s="21"/>
       <c r="CI41" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="CJ41" s="25"/>
       <c r="CK41" s="25"/>
@@ -7353,7 +7356,7 @@
       <c r="FH41" s="32"/>
       <c r="FI41" s="32"/>
       <c r="FK41" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="FL41" s="25"/>
       <c r="FM41" s="25"/>
@@ -7363,7 +7366,7 @@
     </row>
     <row r="42" spans="2:172" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -7455,7 +7458,7 @@
       <c r="CL42" s="13"/>
       <c r="CM42" s="22"/>
       <c r="CN42" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="CO42" s="28"/>
       <c r="CP42" s="28"/>
@@ -7539,7 +7542,7 @@
     </row>
     <row r="43" spans="2:172" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -7621,7 +7624,7 @@
       <c r="CL43" s="4"/>
       <c r="CM43" s="10"/>
       <c r="CN43" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="CO43" s="26"/>
       <c r="CP43" s="26"/>
@@ -7705,7 +7708,7 @@
     </row>
     <row r="44" spans="2:172" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -7765,7 +7768,7 @@
       <c r="BG44" s="29"/>
       <c r="BH44" s="29"/>
       <c r="BJ44" s="29" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="BK44" s="29"/>
       <c r="BL44" s="29"/>
@@ -7792,7 +7795,7 @@
       <c r="CG44" s="29"/>
       <c r="CH44" s="17"/>
       <c r="CI44" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="CJ44" s="25"/>
       <c r="CK44" s="25"/>
@@ -7872,7 +7875,7 @@
       <c r="FI44" s="29"/>
       <c r="FJ44" s="4"/>
       <c r="FK44" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="FL44" s="25"/>
       <c r="FM44" s="25"/>
@@ -7882,7 +7885,7 @@
     </row>
     <row r="45" spans="2:172" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
@@ -7908,7 +7911,7 @@
       <c r="X45" s="28"/>
       <c r="Y45" s="28"/>
       <c r="AA45" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB45" s="28"/>
       <c r="AC45" s="28"/>
@@ -7944,7 +7947,7 @@
       <c r="BG45" s="28"/>
       <c r="BH45" s="28"/>
       <c r="BJ45" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BK45" s="28"/>
       <c r="BL45" s="28"/>
@@ -7976,7 +7979,7 @@
       <c r="CL45" s="13"/>
       <c r="CM45" s="22"/>
       <c r="CN45" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="CO45" s="28"/>
       <c r="CP45" s="28"/>
@@ -8002,7 +8005,7 @@
       <c r="DJ45" s="28"/>
       <c r="DK45" s="28"/>
       <c r="DM45" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="DN45" s="28"/>
       <c r="DO45" s="28"/>
@@ -8028,7 +8031,7 @@
       <c r="EI45" s="28"/>
       <c r="EJ45" s="28"/>
       <c r="EL45" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="EM45" s="28"/>
       <c r="EN45" s="28"/>
@@ -8063,7 +8066,7 @@
     </row>
     <row r="46" spans="2:172" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -8145,7 +8148,7 @@
       <c r="CL46" s="20"/>
       <c r="CM46" s="24"/>
       <c r="CN46" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="CO46" s="26"/>
       <c r="CP46" s="26"/>
@@ -8204,7 +8207,7 @@
     </row>
     <row r="47" spans="2:172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -8291,14 +8294,14 @@
       <c r="CG47" s="27"/>
       <c r="CH47" s="17"/>
       <c r="CI47" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="CJ47" s="25"/>
       <c r="CK47" s="25"/>
       <c r="CL47" s="4"/>
       <c r="CM47" s="10"/>
       <c r="CN47" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="CO47" s="27"/>
       <c r="CP47" s="27"/>
@@ -8375,7 +8378,7 @@
       <c r="FI47" s="27"/>
       <c r="FJ47" s="27"/>
       <c r="FK47" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="FL47" s="25"/>
       <c r="FM47" s="25"/>
@@ -8385,7 +8388,7 @@
     </row>
     <row r="48" spans="2:172" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
@@ -8477,7 +8480,7 @@
       <c r="CL48" s="13"/>
       <c r="CM48" s="22"/>
       <c r="CN48" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="CO48" s="28"/>
       <c r="CP48" s="28"/>
@@ -8562,7 +8565,7 @@
     </row>
     <row r="49" spans="2:172" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -8644,7 +8647,7 @@
       <c r="CL49" s="4"/>
       <c r="CM49" s="10"/>
       <c r="CN49" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="CO49" s="25"/>
       <c r="CP49" s="25"/>
@@ -8894,7 +8897,7 @@
     <mergeCell ref="B48:CG48"/>
     <mergeCell ref="CN48:FJ48"/>
   </mergeCells>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="3" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>